--- a/Football match predictions/Statistics/Country statistics - After round 3.xlsx
+++ b/Football match predictions/Statistics/Country statistics - After round 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larsl\Documents\Privé\Data Analysis\Football-match-predictions\Football match predictions\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05CF735-EE12-4CB2-929B-DF82AC9E5AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC8D464-0690-4A0F-9AA9-09A9F1D2E19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{381A2E7C-6258-4120-A37E-4E40B62320C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{381A2E7C-6258-4120-A37E-4E40B62320C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="25" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="230">
   <si>
     <t>Mexico</t>
   </si>
@@ -22443,7 +22443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E48581B-8D93-4108-8660-9D27F0600950}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -24632,10 +24632,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E978B63-07A6-4DDB-B5E1-8189DE5BD2C2}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20:P21"/>
+      <selection activeCell="O21" sqref="O21:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25768,6 +25768,60 @@
       <c r="P21">
         <f t="shared" ref="P21" si="4">AVERAGE(M16:M20)</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.XLOOKUP(F22,Rankings!B:B,Rankings!A:A)</f>
+        <v>66</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.XLOOKUP(F22, Rankings!B:B, Rankings!C:C)</f>
+        <v>1375.1</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22" si="5">AVERAGE(L17:L21)</f>
+        <v>3.4</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22" si="6">AVERAGE(M17:M21)</f>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -25780,10 +25834,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706E8465-41CB-4EF0-9485-E2C5D4445CA4}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26916,6 +26970,60 @@
       <c r="P21">
         <f t="shared" si="2"/>
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.XLOOKUP(F22,Rankings!B:B,Rankings!A:A)</f>
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.XLOOKUP(F22, Rankings!B:B, Rankings!C:C)</f>
+        <v>1724.6</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22" si="3">AVERAGE(L17:L21)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22" si="4">AVERAGE(M17:M21)</f>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -26928,10 +27036,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE60439-B864-4B78-9844-95B5E9230121}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27847,6 +27955,60 @@
       </c>
       <c r="P17">
         <f t="shared" ref="P17" si="10">AVERAGE(M12:M16)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
+        <v>1721.07</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18" si="11">AVERAGE(L13:L17)</f>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18" si="12">AVERAGE(M13:M17)</f>
         <v>0.4</v>
       </c>
     </row>
@@ -27860,10 +28022,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7C7090-CD15-419B-8518-A91B21459F14}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:P16"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28728,6 +28890,60 @@
         <v>1.4</v>
       </c>
     </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <f>_xlfn.XLOOKUP(F17,Rankings!B:B,Rankings!A:A)</f>
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <f>_xlfn.XLOOKUP(F17, Rankings!B:B, Rankings!C:C)</f>
+        <v>1727.5</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17" si="3">AVERAGE(L12:L16)</f>
+        <v>1.8</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17" si="4">AVERAGE(M12:M16)</f>
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N15">
     <sortCondition ref="A2:A15"/>

--- a/Football match predictions/Statistics/Country statistics - After round 3.xlsx
+++ b/Football match predictions/Statistics/Country statistics - After round 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larsl\Documents\Privé\Data Analysis\Football-match-predictions\Football match predictions\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC8D464-0690-4A0F-9AA9-09A9F1D2E19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3E1761-EBD7-498E-A316-83B0CFE8973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{381A2E7C-6258-4120-A37E-4E40B62320C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="13" xr2:uid="{381A2E7C-6258-4120-A37E-4E40B62320C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="25" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="230">
   <si>
     <t>Mexico</t>
   </si>
@@ -3489,6 +3489,3504 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDA27D3-A80D-49BD-89A0-E3A093AFB0E2}">
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21:P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.XLOOKUP(F2,Rankings!B:B,Rankings!A:A)</f>
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <f>_xlfn.XLOOKUP(F2, Rankings!B:B, Rankings!C:C)</f>
+        <v>1661.11</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(L2:L6)</f>
+        <v>0.8</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.XLOOKUP(F3,Rankings!B:B,Rankings!A:A)</f>
+        <v>53</v>
+      </c>
+      <c r="H3">
+        <f>_xlfn.XLOOKUP(F3, Rankings!B:B, Rankings!C:C)</f>
+        <v>1443.53</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(L2:L6)</f>
+        <v>0.8</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.XLOOKUP(F4,Rankings!B:B,Rankings!A:A)</f>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f>_xlfn.XLOOKUP(F4, Rankings!B:B, Rankings!C:C)</f>
+        <v>1858</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(L2:L6)</f>
+        <v>0.8</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <f>_xlfn.XLOOKUP(F5,Rankings!B:B,Rankings!A:A)</f>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f>_xlfn.XLOOKUP(F5, Rankings!B:B, Rankings!C:C)</f>
+        <v>1840.59</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(L2:L6)</f>
+        <v>0.8</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <f>_xlfn.XLOOKUP(F6,Rankings!B:B,Rankings!A:A)</f>
+        <v>36</v>
+      </c>
+      <c r="H6">
+        <f>_xlfn.XLOOKUP(F6, Rankings!B:B, Rankings!C:C)</f>
+        <v>1501.47</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(L2:L6)</f>
+        <v>0.8</v>
+      </c>
+      <c r="P6">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.XLOOKUP(F7,Rankings!B:B,Rankings!A:A)</f>
+        <v>66</v>
+      </c>
+      <c r="H7">
+        <f>_xlfn.XLOOKUP(F7, Rankings!B:B, Rankings!C:C)</f>
+        <v>1375.1</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:P7" si="0">AVERAGE(L2:L6)</f>
+        <v>0.8</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8">
+        <f>_xlfn.XLOOKUP(F8,Rankings!B:B,Rankings!A:A)</f>
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <f>_xlfn.XLOOKUP(F8, Rankings!B:B, Rankings!C:C)</f>
+        <v>1644.21</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O20" si="1">AVERAGE(L3:L7)</f>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P20" si="2">AVERAGE(M3:M7)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9">
+        <f>_xlfn.XLOOKUP(F9,Rankings!B:B,Rankings!A:A)</f>
+        <v>153</v>
+      </c>
+      <c r="H9">
+        <f>_xlfn.XLOOKUP(F9, Rankings!B:B, Rankings!C:C)</f>
+        <v>1028.8499999999999</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10">
+        <f>_xlfn.XLOOKUP(F10,Rankings!B:B,Rankings!A:A)</f>
+        <v>133</v>
+      </c>
+      <c r="H10">
+        <f>_xlfn.XLOOKUP(F10, Rankings!B:B, Rankings!C:C)</f>
+        <v>1103.43</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11">
+        <f>_xlfn.XLOOKUP(F11,Rankings!B:B,Rankings!A:A)</f>
+        <v>66</v>
+      </c>
+      <c r="H11">
+        <f>_xlfn.XLOOKUP(F11, Rankings!B:B, Rankings!C:C)</f>
+        <v>1375.1</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12">
+        <f>_xlfn.XLOOKUP(F12,Rankings!B:B,Rankings!A:A)</f>
+        <v>133</v>
+      </c>
+      <c r="H12">
+        <f>_xlfn.XLOOKUP(F12, Rankings!B:B, Rankings!C:C)</f>
+        <v>1103.43</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13">
+        <f>_xlfn.XLOOKUP(F13,Rankings!B:B,Rankings!A:A)</f>
+        <v>153</v>
+      </c>
+      <c r="H13">
+        <f>_xlfn.XLOOKUP(F13, Rankings!B:B, Rankings!C:C)</f>
+        <v>1028.8499999999999</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14">
+        <f>_xlfn.XLOOKUP(F14,Rankings!B:B,Rankings!A:A)</f>
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <f>_xlfn.XLOOKUP(F14, Rankings!B:B, Rankings!C:C)</f>
+        <v>1501.47</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15">
+        <f>_xlfn.XLOOKUP(F15,Rankings!B:B,Rankings!A:A)</f>
+        <v>136</v>
+      </c>
+      <c r="H15">
+        <f>_xlfn.XLOOKUP(F15, Rankings!B:B, Rankings!C:C)</f>
+        <v>1095.9100000000001</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16">
+        <f>_xlfn.XLOOKUP(F16,Rankings!B:B,Rankings!A:A)</f>
+        <v>123</v>
+      </c>
+      <c r="H16">
+        <f>_xlfn.XLOOKUP(F16, Rankings!B:B, Rankings!C:C)</f>
+        <v>1141.1300000000001</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <f>_xlfn.XLOOKUP(F17,Rankings!B:B,Rankings!A:A)</f>
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <f>_xlfn.XLOOKUP(F17, Rankings!B:B, Rankings!C:C)</f>
+        <v>1531.38</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
+        <v>1568.86</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <f>_xlfn.XLOOKUP(F19,Rankings!B:B,Rankings!A:A)</f>
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <f>_xlfn.XLOOKUP(F19, Rankings!B:B, Rankings!C:C)</f>
+        <v>1495.94</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <f>_xlfn.XLOOKUP(F20,Rankings!B:B,Rankings!A:A)</f>
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <f>_xlfn.XLOOKUP(F20, Rankings!B:B, Rankings!C:C)</f>
+        <v>1742.29</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21">
+        <f>_xlfn.XLOOKUP(F21,Rankings!B:B,Rankings!A:A)</f>
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <f>_xlfn.XLOOKUP(F21, Rankings!B:B, Rankings!C:C)</f>
+        <v>1554.86</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ref="O21" si="3">AVERAGE(L16:L20)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21" si="4">AVERAGE(M16:M20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.XLOOKUP(F22,Rankings!B:B,Rankings!A:A)</f>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.XLOOKUP(F22, Rankings!B:B, Rankings!C:C)</f>
+        <v>1840.59</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22" si="5">AVERAGE(L17:L21)</f>
+        <v>1.4</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22" si="6">AVERAGE(M17:M21)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
+    <sortCondition ref="A2:A20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCABC8A9-8508-4CB7-BF3B-5A85673E72C1}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22:P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.XLOOKUP(F2,Rankings!B:B,Rankings!A:A)</f>
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <f>_xlfn.XLOOKUP(F2, Rankings!B:B, Rankings!C:C)</f>
+        <v>1518.22</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(L2:L6)</f>
+        <v>1.6</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.XLOOKUP(F3,Rankings!B:B,Rankings!A:A)</f>
+        <v>34</v>
+      </c>
+      <c r="H3">
+        <f>_xlfn.XLOOKUP(F3, Rankings!B:B, Rankings!C:C)</f>
+        <v>1507.94</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(L2:L6)</f>
+        <v>1.6</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.XLOOKUP(F4,Rankings!B:B,Rankings!A:A)</f>
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <f>_xlfn.XLOOKUP(F4, Rankings!B:B, Rankings!C:C)</f>
+        <v>1681.13</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(L2:L6)</f>
+        <v>1.6</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <f>_xlfn.XLOOKUP(F5,Rankings!B:B,Rankings!A:A)</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>_xlfn.XLOOKUP(F5, Rankings!B:B, Rankings!C:C)</f>
+        <v>1858</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(L2:L6)</f>
+        <v>1.6</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <f>_xlfn.XLOOKUP(F6,Rankings!B:B,Rankings!A:A)</f>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>_xlfn.XLOOKUP(F6, Rankings!B:B, Rankings!C:C)</f>
+        <v>1840.59</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(L2:L6)</f>
+        <v>1.6</v>
+      </c>
+      <c r="P6">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.XLOOKUP(F7,Rankings!B:B,Rankings!A:A)</f>
+        <v>203</v>
+      </c>
+      <c r="H7">
+        <f>_xlfn.XLOOKUP(F7, Rankings!B:B, Rankings!C:C)</f>
+        <v>832.5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:P7" si="0">AVERAGE(L2:L6)</f>
+        <v>1.6</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <f>_xlfn.XLOOKUP(F8,Rankings!B:B,Rankings!A:A)</f>
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <f>_xlfn.XLOOKUP(F8, Rankings!B:B, Rankings!C:C)</f>
+        <v>1721.07</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O21" si="1">AVERAGE(L3:L7)</f>
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P21" si="2">AVERAGE(M3:M7)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <f>_xlfn.XLOOKUP(F9,Rankings!B:B,Rankings!A:A)</f>
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <f>_xlfn.XLOOKUP(F9, Rankings!B:B, Rankings!C:C)</f>
+        <v>1724.6</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <f>_xlfn.XLOOKUP(F10,Rankings!B:B,Rankings!A:A)</f>
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <f>_xlfn.XLOOKUP(F10, Rankings!B:B, Rankings!C:C)</f>
+        <v>1457.89</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11">
+        <f>_xlfn.XLOOKUP(F11,Rankings!B:B,Rankings!A:A)</f>
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <f>_xlfn.XLOOKUP(F11, Rankings!B:B, Rankings!C:C)</f>
+        <v>1399.74</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <f>_xlfn.XLOOKUP(F12,Rankings!B:B,Rankings!A:A)</f>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f>_xlfn.XLOOKUP(F12, Rankings!B:B, Rankings!C:C)</f>
+        <v>1840.59</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <f>_xlfn.XLOOKUP(F13,Rankings!B:B,Rankings!A:A)</f>
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <f>_xlfn.XLOOKUP(F13, Rankings!B:B, Rankings!C:C)</f>
+        <v>1457.89</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14">
+        <f>_xlfn.XLOOKUP(F14,Rankings!B:B,Rankings!A:A)</f>
+        <v>60</v>
+      </c>
+      <c r="H14">
+        <f>_xlfn.XLOOKUP(F14, Rankings!B:B, Rankings!C:C)</f>
+        <v>1399.74</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <f>_xlfn.XLOOKUP(F15,Rankings!B:B,Rankings!A:A)</f>
+        <v>203</v>
+      </c>
+      <c r="H15">
+        <f>_xlfn.XLOOKUP(F15, Rankings!B:B, Rankings!C:C)</f>
+        <v>832.5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <f>_xlfn.XLOOKUP(F16,Rankings!B:B,Rankings!A:A)</f>
+        <v>39</v>
+      </c>
+      <c r="H16">
+        <f>_xlfn.XLOOKUP(F16, Rankings!B:B, Rankings!C:C)</f>
+        <v>1497.46</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <f>_xlfn.XLOOKUP(F17,Rankings!B:B,Rankings!A:A)</f>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f>_xlfn.XLOOKUP(F17, Rankings!B:B, Rankings!C:C)</f>
+        <v>1644.21</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18">
+        <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
+        <v>49</v>
+      </c>
+      <c r="H18">
+        <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
+        <v>1461.16</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19">
+        <f>_xlfn.XLOOKUP(F19,Rankings!B:B,Rankings!A:A)</f>
+        <v>72</v>
+      </c>
+      <c r="H19">
+        <f>_xlfn.XLOOKUP(F19, Rankings!B:B, Rankings!C:C)</f>
+        <v>1346.82</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20">
+        <f>_xlfn.XLOOKUP(F20,Rankings!B:B,Rankings!A:A)</f>
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <f>_xlfn.XLOOKUP(F20, Rankings!B:B, Rankings!C:C)</f>
+        <v>1624.73</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <f>_xlfn.XLOOKUP(F21,Rankings!B:B,Rankings!A:A)</f>
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <f>_xlfn.XLOOKUP(F21, Rankings!B:B, Rankings!C:C)</f>
+        <v>1531.49</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.XLOOKUP(F22,Rankings!B:B,Rankings!A:A)</f>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.XLOOKUP(F22, Rankings!B:B, Rankings!C:C)</f>
+        <v>1840.59</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22" si="3">AVERAGE(L17:L21)</f>
+        <v>2.6</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22" si="4">AVERAGE(M17:M21)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <f>_xlfn.XLOOKUP(F23,Rankings!B:B,Rankings!A:A)</f>
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <f>_xlfn.XLOOKUP(F23, Rankings!B:B, Rankings!C:C)</f>
+        <v>1554.86</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23" si="5">AVERAGE(L18:L22)</f>
+        <v>2.4</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23" si="6">AVERAGE(M18:M22)</f>
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+    <sortCondition ref="A2:A21"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73662F13-8365-4402-BDC9-1AB7CC706E4E}">
+  <dimension ref="A1:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.XLOOKUP(F2,Rankings!B:B,Rankings!A:A)</f>
+        <v>103</v>
+      </c>
+      <c r="H2">
+        <f>_xlfn.XLOOKUP(F2, Rankings!B:B, Rankings!C:C)</f>
+        <v>1203.6400000000001</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(L2:L6)</f>
+        <v>1.8</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.XLOOKUP(F3,Rankings!B:B,Rankings!A:A)</f>
+        <v>210</v>
+      </c>
+      <c r="H3">
+        <f>_xlfn.XLOOKUP(F3, Rankings!B:B, Rankings!C:C)</f>
+        <v>742.05</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>AVERAGE(L2:L6)</f>
+        <v>1.8</v>
+      </c>
+      <c r="P3">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.XLOOKUP(F4,Rankings!B:B,Rankings!A:A)</f>
+        <v>61</v>
+      </c>
+      <c r="H4">
+        <f>_xlfn.XLOOKUP(F4, Rankings!B:B, Rankings!C:C)</f>
+        <v>1394.44</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f>AVERAGE(L2:L6)</f>
+        <v>1.8</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <f>_xlfn.XLOOKUP(F5,Rankings!B:B,Rankings!A:A)</f>
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <f>_xlfn.XLOOKUP(F5, Rankings!B:B, Rankings!C:C)</f>
+        <v>1602.72</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f>AVERAGE(L2:L6)</f>
+        <v>1.8</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <f>_xlfn.XLOOKUP(F6,Rankings!B:B,Rankings!A:A)</f>
+        <v>73</v>
+      </c>
+      <c r="H6">
+        <f>_xlfn.XLOOKUP(F6, Rankings!B:B, Rankings!C:C)</f>
+        <v>1341.05</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(L2:L6)</f>
+        <v>1.8</v>
+      </c>
+      <c r="P6">
+        <f>AVERAGE(M2:M6)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.XLOOKUP(F7,Rankings!B:B,Rankings!A:A)</f>
+        <v>210</v>
+      </c>
+      <c r="H7">
+        <f>_xlfn.XLOOKUP(F7, Rankings!B:B, Rankings!C:C)</f>
+        <v>742.05</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:P7" si="0">AVERAGE(L2:L6)</f>
+        <v>1.8</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <f>_xlfn.XLOOKUP(F8,Rankings!B:B,Rankings!A:A)</f>
+        <v>61</v>
+      </c>
+      <c r="H8">
+        <f>_xlfn.XLOOKUP(F8, Rankings!B:B, Rankings!C:C)</f>
+        <v>1394.44</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O17" si="1">AVERAGE(L3:L7)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8:P17" si="2">AVERAGE(M3:M7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <f>_xlfn.XLOOKUP(F9,Rankings!B:B,Rankings!A:A)</f>
+        <v>73</v>
+      </c>
+      <c r="H9">
+        <f>_xlfn.XLOOKUP(F9, Rankings!B:B, Rankings!C:C)</f>
+        <v>1341.05</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <f>_xlfn.XLOOKUP(F10,Rankings!B:B,Rankings!A:A)</f>
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <f>_xlfn.XLOOKUP(F10, Rankings!B:B, Rankings!C:C)</f>
+        <v>1602.72</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11">
+        <f>_xlfn.XLOOKUP(F11,Rankings!B:B,Rankings!A:A)</f>
+        <v>103</v>
+      </c>
+      <c r="H11">
+        <f>_xlfn.XLOOKUP(F11, Rankings!B:B, Rankings!C:C)</f>
+        <v>1203.6400000000001</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>_xlfn.XLOOKUP(F12,Rankings!B:B,Rankings!A:A)</f>
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f>_xlfn.XLOOKUP(F12, Rankings!B:B, Rankings!C:C)</f>
+        <v>1681.13</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13">
+        <f>_xlfn.XLOOKUP(F13,Rankings!B:B,Rankings!A:A)</f>
+        <v>171</v>
+      </c>
+      <c r="H13">
+        <f>_xlfn.XLOOKUP(F13, Rankings!B:B, Rankings!C:C)</f>
+        <v>973.14</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14">
+        <f>_xlfn.XLOOKUP(F14,Rankings!B:B,Rankings!A:A)</f>
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <f>_xlfn.XLOOKUP(F14, Rankings!B:B, Rankings!C:C)</f>
+        <v>1748.11</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15">
+        <f>_xlfn.XLOOKUP(F15,Rankings!B:B,Rankings!A:A)</f>
+        <v>95</v>
+      </c>
+      <c r="H15">
+        <f>_xlfn.XLOOKUP(F15, Rankings!B:B, Rankings!C:C)</f>
+        <v>1229.18</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16">
+        <f>_xlfn.XLOOKUP(F16,Rankings!B:B,Rankings!A:A)</f>
+        <v>83</v>
+      </c>
+      <c r="H16">
+        <f>_xlfn.XLOOKUP(F16, Rankings!B:B, Rankings!C:C)</f>
+        <v>1292.5899999999999</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17">
+        <f>_xlfn.XLOOKUP(F17,Rankings!B:B,Rankings!A:A)</f>
+        <v>21</v>
+      </c>
+      <c r="H17">
+        <f>_xlfn.XLOOKUP(F17, Rankings!B:B, Rankings!C:C)</f>
+        <v>1602.72</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18">
+        <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
+        <v>33</v>
+      </c>
+      <c r="H18">
+        <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
+        <v>1514.2</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18" si="3">AVERAGE(L13:L17)</f>
+        <v>1.6</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18" si="4">AVERAGE(M13:M17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <f>_xlfn.XLOOKUP(F19,Rankings!B:B,Rankings!A:A)</f>
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <f>_xlfn.XLOOKUP(F19, Rankings!B:B, Rankings!C:C)</f>
+        <v>1794.9</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f t="shared" ref="O19" si="5">AVERAGE(L14:L18)</f>
+        <v>1.4</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ref="P19" si="6">AVERAGE(M14:M18)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N17">
+    <sortCondition ref="A2:A17"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6B7F7D-48A7-4C3A-BF5C-2B4317DE37F7}">
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3552,36 +7050,36 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <f>_xlfn.XLOOKUP(F2,Rankings!B:B,Rankings!A:A)</f>
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <f>_xlfn.XLOOKUP(F2, Rankings!B:B, Rankings!C:C)</f>
-        <v>1661.11</v>
+        <v>1493.12</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3594,11 +7092,11 @@
       </c>
       <c r="O2">
         <f>AVERAGE(L2:L6)</f>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="P2">
         <f>AVERAGE(M2:M6)</f>
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -3606,27 +7104,27 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <f>_xlfn.XLOOKUP(F3,Rankings!B:B,Rankings!A:A)</f>
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <f>_xlfn.XLOOKUP(F3, Rankings!B:B, Rankings!C:C)</f>
-        <v>1443.53</v>
+        <v>1840.59</v>
       </c>
       <c r="I3">
         <v>4</v>
@@ -3638,21 +7136,21 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3">
         <f>AVERAGE(L2:L6)</f>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="P3">
         <f>AVERAGE(M2:M6)</f>
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -3660,53 +7158,53 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <f>_xlfn.XLOOKUP(F4,Rankings!B:B,Rankings!A:A)</f>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <f>_xlfn.XLOOKUP(F4, Rankings!B:B, Rankings!C:C)</f>
-        <v>1858</v>
+        <v>1563.93</v>
       </c>
       <c r="I4">
         <v>4</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
         <f>AVERAGE(L2:L6)</f>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="P4">
         <f>AVERAGE(M2:M6)</f>
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -3714,53 +7212,53 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <f>_xlfn.XLOOKUP(F5,Rankings!B:B,Rankings!A:A)</f>
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <f>_xlfn.XLOOKUP(F5, Rankings!B:B, Rankings!C:C)</f>
-        <v>1840.59</v>
+        <v>1394.44</v>
       </c>
       <c r="I5">
         <v>4</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5">
         <f>AVERAGE(L2:L6)</f>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="P5">
         <f>AVERAGE(M2:M6)</f>
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -3774,33 +7272,33 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="G6">
         <f>_xlfn.XLOOKUP(F6,Rankings!B:B,Rankings!A:A)</f>
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="H6">
         <f>_xlfn.XLOOKUP(F6, Rankings!B:B, Rankings!C:C)</f>
-        <v>1501.47</v>
+        <v>1203.6400000000001</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -3810,11 +7308,11 @@
       </c>
       <c r="O6">
         <f>AVERAGE(L2:L6)</f>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="P6">
         <f>AVERAGE(M2:M6)</f>
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -3828,30 +7326,30 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <f>_xlfn.XLOOKUP(F7,Rankings!B:B,Rankings!A:A)</f>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H7">
         <f>_xlfn.XLOOKUP(F7, Rankings!B:B, Rankings!C:C)</f>
-        <v>1375.1</v>
+        <v>1341.05</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3864,11 +7362,11 @@
       </c>
       <c r="O7">
         <f t="shared" ref="O7:P7" si="0">AVERAGE(L2:L6)</f>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="P7">
         <f t="shared" si="0"/>
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3876,53 +7374,53 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <f>_xlfn.XLOOKUP(F8,Rankings!B:B,Rankings!A:A)</f>
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H8">
         <f>_xlfn.XLOOKUP(F8, Rankings!B:B, Rankings!C:C)</f>
-        <v>1644.21</v>
+        <v>1427.84</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:O20" si="1">AVERAGE(L3:L7)</f>
-        <v>1</v>
+        <f t="shared" ref="O8:O19" si="1">AVERAGE(L3:L7)</f>
+        <v>1.4</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8:P20" si="2">AVERAGE(M3:M7)</f>
-        <v>1.6</v>
+        <f t="shared" ref="P8:P19" si="2">AVERAGE(M3:M7)</f>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -3930,53 +7428,53 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="G9">
         <f>_xlfn.XLOOKUP(F9,Rankings!B:B,Rankings!A:A)</f>
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="H9">
         <f>_xlfn.XLOOKUP(F9, Rankings!B:B, Rankings!C:C)</f>
-        <v>1028.8499999999999</v>
+        <v>742.05</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="P9">
         <f t="shared" si="2"/>
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3984,27 +7482,27 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <f>_xlfn.XLOOKUP(F10,Rankings!B:B,Rankings!A:A)</f>
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="H10">
         <f>_xlfn.XLOOKUP(F10, Rankings!B:B, Rankings!C:C)</f>
-        <v>1103.43</v>
+        <v>1394.44</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -4016,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -4026,11 +7524,11 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P10">
         <f t="shared" si="2"/>
-        <v>1.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4038,53 +7536,53 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="G11">
         <f>_xlfn.XLOOKUP(F11,Rankings!B:B,Rankings!A:A)</f>
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="H11">
         <f>_xlfn.XLOOKUP(F11, Rankings!B:B, Rankings!C:C)</f>
-        <v>1375.1</v>
+        <v>1203.6400000000001</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="P11">
         <f t="shared" si="2"/>
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -4095,50 +7593,50 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="G12">
         <f>_xlfn.XLOOKUP(F12,Rankings!B:B,Rankings!A:A)</f>
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="H12">
         <f>_xlfn.XLOOKUP(F12, Rankings!B:B, Rankings!C:C)</f>
-        <v>1103.43</v>
+        <v>742.05</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>2</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -4149,36 +7647,36 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="G13">
         <f>_xlfn.XLOOKUP(F13,Rankings!B:B,Rankings!A:A)</f>
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="H13">
         <f>_xlfn.XLOOKUP(F13, Rankings!B:B, Rankings!C:C)</f>
-        <v>1028.8499999999999</v>
+        <v>1427.84</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -4188,11 +7686,11 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P13">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -4200,53 +7698,53 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G14">
         <f>_xlfn.XLOOKUP(F14,Rankings!B:B,Rankings!A:A)</f>
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="H14">
         <f>_xlfn.XLOOKUP(F14, Rankings!B:B, Rankings!C:C)</f>
-        <v>1501.47</v>
+        <v>1341.05</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="P14">
         <f t="shared" si="2"/>
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -4266,27 +7764,27 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <f>_xlfn.XLOOKUP(F15,Rankings!B:B,Rankings!A:A)</f>
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="H15">
         <f>_xlfn.XLOOKUP(F15, Rankings!B:B, Rankings!C:C)</f>
-        <v>1095.9100000000001</v>
+        <v>1616.41</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -4296,11 +7794,11 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="P15">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -4311,50 +7809,50 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G16">
         <f>_xlfn.XLOOKUP(F16,Rankings!B:B,Rankings!A:A)</f>
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="H16">
         <f>_xlfn.XLOOKUP(F16, Rankings!B:B, Rankings!C:C)</f>
-        <v>1141.1300000000001</v>
+        <v>1103.43</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P16">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -4362,7 +7860,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -4374,41 +7872,41 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <f>_xlfn.XLOOKUP(F17,Rankings!B:B,Rankings!A:A)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H17">
         <f>_xlfn.XLOOKUP(F17, Rankings!B:B, Rankings!C:C)</f>
-        <v>1531.38</v>
+        <v>1531.68</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="P17">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4422,30 +7920,30 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G18">
         <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H18">
         <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
-        <v>1568.86</v>
+        <v>1467.51</v>
       </c>
       <c r="I18">
         <v>4</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -4458,11 +7956,11 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="P18">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -4470,7 +7968,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -4482,41 +7980,41 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G19">
         <f>_xlfn.XLOOKUP(F19,Rankings!B:B,Rankings!A:A)</f>
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H19">
         <f>_xlfn.XLOOKUP(F19, Rankings!B:B, Rankings!C:C)</f>
-        <v>1495.94</v>
+        <v>1427.84</v>
       </c>
       <c r="I19">
         <v>4</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="P19">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -4536,15 +8034,15 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G20">
         <f>_xlfn.XLOOKUP(F20,Rankings!B:B,Rankings!A:A)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <f>_xlfn.XLOOKUP(F20, Rankings!B:B, Rankings!C:C)</f>
-        <v>1742.29</v>
+        <v>1794.9</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -4559,17 +8057,17 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
+        <f t="shared" ref="O20" si="3">AVERAGE(L15:L19)</f>
+        <v>1.6</v>
       </c>
       <c r="P20">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P20" si="4">AVERAGE(M15:M19)</f>
         <v>0.6</v>
       </c>
     </row>
@@ -4590,3323 +8088,41 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <f>_xlfn.XLOOKUP(F21,Rankings!B:B,Rankings!A:A)</f>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <f>_xlfn.XLOOKUP(F21, Rankings!B:B, Rankings!C:C)</f>
-        <v>1554.86</v>
+        <v>1514.2</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
       <c r="O21">
-        <f t="shared" ref="O21" si="3">AVERAGE(L16:L20)</f>
-        <v>2.2000000000000002</v>
+        <f t="shared" ref="O21" si="5">AVERAGE(L16:L20)</f>
+        <v>1.8</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21" si="4">AVERAGE(M16:M20)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
-    <sortCondition ref="A2:A20"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCABC8A9-8508-4CB7-BF3B-5A85673E72C1}">
-  <dimension ref="A1:P22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O21" sqref="O21:P22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2">
-        <f>_xlfn.XLOOKUP(F2,Rankings!B:B,Rankings!A:A)</f>
-        <v>31</v>
-      </c>
-      <c r="H2">
-        <f>_xlfn.XLOOKUP(F2, Rankings!B:B, Rankings!C:C)</f>
-        <v>1518.22</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.6</v>
-      </c>
-      <c r="P2">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3">
-        <f>_xlfn.XLOOKUP(F3,Rankings!B:B,Rankings!A:A)</f>
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <f>_xlfn.XLOOKUP(F3, Rankings!B:B, Rankings!C:C)</f>
-        <v>1507.94</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.6</v>
-      </c>
-      <c r="P3">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <f>_xlfn.XLOOKUP(F4,Rankings!B:B,Rankings!A:A)</f>
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <f>_xlfn.XLOOKUP(F4, Rankings!B:B, Rankings!C:C)</f>
-        <v>1681.13</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.6</v>
-      </c>
-      <c r="P4">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <f>_xlfn.XLOOKUP(F5,Rankings!B:B,Rankings!A:A)</f>
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <f>_xlfn.XLOOKUP(F5, Rankings!B:B, Rankings!C:C)</f>
-        <v>1858</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.6</v>
-      </c>
-      <c r="P5">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <f>_xlfn.XLOOKUP(F6,Rankings!B:B,Rankings!A:A)</f>
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <f>_xlfn.XLOOKUP(F6, Rankings!B:B, Rankings!C:C)</f>
-        <v>1840.59</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.6</v>
-      </c>
-      <c r="P6">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <f>_xlfn.XLOOKUP(F7,Rankings!B:B,Rankings!A:A)</f>
-        <v>203</v>
-      </c>
-      <c r="H7">
-        <f>_xlfn.XLOOKUP(F7, Rankings!B:B, Rankings!C:C)</f>
-        <v>832.5</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ref="O7:P7" si="0">AVERAGE(L2:L6)</f>
-        <v>1.6</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8">
-        <f>_xlfn.XLOOKUP(F8,Rankings!B:B,Rankings!A:A)</f>
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <f>_xlfn.XLOOKUP(F8, Rankings!B:B, Rankings!C:C)</f>
-        <v>1721.07</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ref="O8:O21" si="1">AVERAGE(L3:L7)</f>
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <f t="shared" ref="P8:P21" si="2">AVERAGE(M3:M7)</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9">
-        <f>_xlfn.XLOOKUP(F9,Rankings!B:B,Rankings!A:A)</f>
-        <v>9</v>
-      </c>
-      <c r="H9">
-        <f>_xlfn.XLOOKUP(F9, Rankings!B:B, Rankings!C:C)</f>
-        <v>1724.6</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <f>_xlfn.XLOOKUP(F10,Rankings!B:B,Rankings!A:A)</f>
-        <v>50</v>
-      </c>
-      <c r="H10">
-        <f>_xlfn.XLOOKUP(F10, Rankings!B:B, Rankings!C:C)</f>
-        <v>1457.89</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11">
-        <f>_xlfn.XLOOKUP(F11,Rankings!B:B,Rankings!A:A)</f>
-        <v>60</v>
-      </c>
-      <c r="H11">
-        <f>_xlfn.XLOOKUP(F11, Rankings!B:B, Rankings!C:C)</f>
-        <v>1399.74</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <f>_xlfn.XLOOKUP(F12,Rankings!B:B,Rankings!A:A)</f>
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <f>_xlfn.XLOOKUP(F12, Rankings!B:B, Rankings!C:C)</f>
-        <v>1840.59</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <f>_xlfn.XLOOKUP(F13,Rankings!B:B,Rankings!A:A)</f>
-        <v>50</v>
-      </c>
-      <c r="H13">
-        <f>_xlfn.XLOOKUP(F13, Rankings!B:B, Rankings!C:C)</f>
-        <v>1457.89</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14">
-        <f>_xlfn.XLOOKUP(F14,Rankings!B:B,Rankings!A:A)</f>
-        <v>60</v>
-      </c>
-      <c r="H14">
-        <f>_xlfn.XLOOKUP(F14, Rankings!B:B, Rankings!C:C)</f>
-        <v>1399.74</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <f>_xlfn.XLOOKUP(F15,Rankings!B:B,Rankings!A:A)</f>
-        <v>203</v>
-      </c>
-      <c r="H15">
-        <f>_xlfn.XLOOKUP(F15, Rankings!B:B, Rankings!C:C)</f>
-        <v>832.5</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>6</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16">
-        <f>_xlfn.XLOOKUP(F16,Rankings!B:B,Rankings!A:A)</f>
-        <v>39</v>
-      </c>
-      <c r="H16">
-        <f>_xlfn.XLOOKUP(F16, Rankings!B:B, Rankings!C:C)</f>
-        <v>1497.46</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>6</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17">
-        <f>_xlfn.XLOOKUP(F17,Rankings!B:B,Rankings!A:A)</f>
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <f>_xlfn.XLOOKUP(F17, Rankings!B:B, Rankings!C:C)</f>
-        <v>1644.21</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18">
-        <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
-        <v>49</v>
-      </c>
-      <c r="H18">
-        <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
-        <v>1461.16</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>4</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19">
-        <f>_xlfn.XLOOKUP(F19,Rankings!B:B,Rankings!A:A)</f>
-        <v>72</v>
-      </c>
-      <c r="H19">
-        <f>_xlfn.XLOOKUP(F19, Rankings!B:B, Rankings!C:C)</f>
-        <v>1346.82</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>4</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20">
-        <f>_xlfn.XLOOKUP(F20,Rankings!B:B,Rankings!A:A)</f>
-        <v>17</v>
-      </c>
-      <c r="H20">
-        <f>_xlfn.XLOOKUP(F20, Rankings!B:B, Rankings!C:C)</f>
-        <v>1624.73</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="1"/>
-        <v>3.8</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21">
-        <f>_xlfn.XLOOKUP(F21,Rankings!B:B,Rankings!A:A)</f>
-        <v>28</v>
-      </c>
-      <c r="H21">
-        <f>_xlfn.XLOOKUP(F21, Rankings!B:B, Rankings!C:C)</f>
-        <v>1531.49</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <f>_xlfn.XLOOKUP(F22,Rankings!B:B,Rankings!A:A)</f>
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <f>_xlfn.XLOOKUP(F22, Rankings!B:B, Rankings!C:C)</f>
-        <v>1840.59</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="J22">
-        <v>4</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <f t="shared" ref="O22" si="3">AVERAGE(L17:L21)</f>
-        <v>2.6</v>
-      </c>
-      <c r="P22">
-        <f t="shared" ref="P22" si="4">AVERAGE(M17:M21)</f>
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
-    <sortCondition ref="A2:A21"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73662F13-8365-4402-BDC9-1AB7CC706E4E}">
-  <dimension ref="A1:P18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2">
-        <f>_xlfn.XLOOKUP(F2,Rankings!B:B,Rankings!A:A)</f>
-        <v>103</v>
-      </c>
-      <c r="H2">
-        <f>_xlfn.XLOOKUP(F2, Rankings!B:B, Rankings!C:C)</f>
-        <v>1203.6400000000001</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.8</v>
-      </c>
-      <c r="P2">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3">
-        <f>_xlfn.XLOOKUP(F3,Rankings!B:B,Rankings!A:A)</f>
-        <v>210</v>
-      </c>
-      <c r="H3">
-        <f>_xlfn.XLOOKUP(F3, Rankings!B:B, Rankings!C:C)</f>
-        <v>742.05</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.8</v>
-      </c>
-      <c r="P3">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <f>_xlfn.XLOOKUP(F4,Rankings!B:B,Rankings!A:A)</f>
-        <v>61</v>
-      </c>
-      <c r="H4">
-        <f>_xlfn.XLOOKUP(F4, Rankings!B:B, Rankings!C:C)</f>
-        <v>1394.44</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.8</v>
-      </c>
-      <c r="P4">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5">
-        <f>_xlfn.XLOOKUP(F5,Rankings!B:B,Rankings!A:A)</f>
-        <v>21</v>
-      </c>
-      <c r="H5">
-        <f>_xlfn.XLOOKUP(F5, Rankings!B:B, Rankings!C:C)</f>
-        <v>1602.72</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.8</v>
-      </c>
-      <c r="P5">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <f>_xlfn.XLOOKUP(F6,Rankings!B:B,Rankings!A:A)</f>
-        <v>73</v>
-      </c>
-      <c r="H6">
-        <f>_xlfn.XLOOKUP(F6, Rankings!B:B, Rankings!C:C)</f>
-        <v>1341.05</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.8</v>
-      </c>
-      <c r="P6">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7">
-        <f>_xlfn.XLOOKUP(F7,Rankings!B:B,Rankings!A:A)</f>
-        <v>210</v>
-      </c>
-      <c r="H7">
-        <f>_xlfn.XLOOKUP(F7, Rankings!B:B, Rankings!C:C)</f>
-        <v>742.05</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ref="O7:P7" si="0">AVERAGE(L2:L6)</f>
-        <v>1.8</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <f>_xlfn.XLOOKUP(F8,Rankings!B:B,Rankings!A:A)</f>
-        <v>61</v>
-      </c>
-      <c r="H8">
-        <f>_xlfn.XLOOKUP(F8, Rankings!B:B, Rankings!C:C)</f>
-        <v>1394.44</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ref="O8:O17" si="1">AVERAGE(L3:L7)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P8">
-        <f t="shared" ref="P8:P17" si="2">AVERAGE(M3:M7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9">
-        <f>_xlfn.XLOOKUP(F9,Rankings!B:B,Rankings!A:A)</f>
-        <v>73</v>
-      </c>
-      <c r="H9">
-        <f>_xlfn.XLOOKUP(F9, Rankings!B:B, Rankings!C:C)</f>
-        <v>1341.05</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10">
-        <f>_xlfn.XLOOKUP(F10,Rankings!B:B,Rankings!A:A)</f>
-        <v>21</v>
-      </c>
-      <c r="H10">
-        <f>_xlfn.XLOOKUP(F10, Rankings!B:B, Rankings!C:C)</f>
-        <v>1602.72</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11">
-        <f>_xlfn.XLOOKUP(F11,Rankings!B:B,Rankings!A:A)</f>
-        <v>103</v>
-      </c>
-      <c r="H11">
-        <f>_xlfn.XLOOKUP(F11, Rankings!B:B, Rankings!C:C)</f>
-        <v>1203.6400000000001</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>2.6</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="P21" si="6">AVERAGE(M16:M20)</f>
         <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <f>_xlfn.XLOOKUP(F12,Rankings!B:B,Rankings!A:A)</f>
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <f>_xlfn.XLOOKUP(F12, Rankings!B:B, Rankings!C:C)</f>
-        <v>1681.13</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13">
-        <f>_xlfn.XLOOKUP(F13,Rankings!B:B,Rankings!A:A)</f>
-        <v>171</v>
-      </c>
-      <c r="H13">
-        <f>_xlfn.XLOOKUP(F13, Rankings!B:B, Rankings!C:C)</f>
-        <v>973.14</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14">
-        <f>_xlfn.XLOOKUP(F14,Rankings!B:B,Rankings!A:A)</f>
-        <v>6</v>
-      </c>
-      <c r="H14">
-        <f>_xlfn.XLOOKUP(F14, Rankings!B:B, Rankings!C:C)</f>
-        <v>1748.11</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15">
-        <f>_xlfn.XLOOKUP(F15,Rankings!B:B,Rankings!A:A)</f>
-        <v>95</v>
-      </c>
-      <c r="H15">
-        <f>_xlfn.XLOOKUP(F15, Rankings!B:B, Rankings!C:C)</f>
-        <v>1229.18</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15">
-        <v>4</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16">
-        <f>_xlfn.XLOOKUP(F16,Rankings!B:B,Rankings!A:A)</f>
-        <v>83</v>
-      </c>
-      <c r="H16">
-        <f>_xlfn.XLOOKUP(F16, Rankings!B:B, Rankings!C:C)</f>
-        <v>1292.5899999999999</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17">
-        <f>_xlfn.XLOOKUP(F17,Rankings!B:B,Rankings!A:A)</f>
-        <v>21</v>
-      </c>
-      <c r="H17">
-        <f>_xlfn.XLOOKUP(F17, Rankings!B:B, Rankings!C:C)</f>
-        <v>1602.72</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18">
-        <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
-        <v>33</v>
-      </c>
-      <c r="H18">
-        <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
-        <v>1514.2</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>6</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <f t="shared" ref="O18" si="3">AVERAGE(L13:L17)</f>
-        <v>1.6</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ref="P18" si="4">AVERAGE(M13:M17)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N17">
-    <sortCondition ref="A2:A17"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6B7F7D-48A7-4C3A-BF5C-2B4317DE37F7}">
-  <dimension ref="A1:P20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2">
-        <f>_xlfn.XLOOKUP(F2,Rankings!B:B,Rankings!A:A)</f>
-        <v>41</v>
-      </c>
-      <c r="H2">
-        <f>_xlfn.XLOOKUP(F2, Rankings!B:B, Rankings!C:C)</f>
-        <v>1493.12</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.2</v>
-      </c>
-      <c r="P2">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <f>_xlfn.XLOOKUP(F3,Rankings!B:B,Rankings!A:A)</f>
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <f>_xlfn.XLOOKUP(F3, Rankings!B:B, Rankings!C:C)</f>
-        <v>1840.59</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.2</v>
-      </c>
-      <c r="P3">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4">
-        <f>_xlfn.XLOOKUP(F4,Rankings!B:B,Rankings!A:A)</f>
-        <v>24</v>
-      </c>
-      <c r="H4">
-        <f>_xlfn.XLOOKUP(F4, Rankings!B:B, Rankings!C:C)</f>
-        <v>1563.93</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.2</v>
-      </c>
-      <c r="P4">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <f>_xlfn.XLOOKUP(F5,Rankings!B:B,Rankings!A:A)</f>
-        <v>61</v>
-      </c>
-      <c r="H5">
-        <f>_xlfn.XLOOKUP(F5, Rankings!B:B, Rankings!C:C)</f>
-        <v>1394.44</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.2</v>
-      </c>
-      <c r="P5">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6">
-        <f>_xlfn.XLOOKUP(F6,Rankings!B:B,Rankings!A:A)</f>
-        <v>103</v>
-      </c>
-      <c r="H6">
-        <f>_xlfn.XLOOKUP(F6, Rankings!B:B, Rankings!C:C)</f>
-        <v>1203.6400000000001</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <f>AVERAGE(L2:L6)</f>
-        <v>1.2</v>
-      </c>
-      <c r="P6">
-        <f>AVERAGE(M2:M6)</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <f>_xlfn.XLOOKUP(F7,Rankings!B:B,Rankings!A:A)</f>
-        <v>73</v>
-      </c>
-      <c r="H7">
-        <f>_xlfn.XLOOKUP(F7, Rankings!B:B, Rankings!C:C)</f>
-        <v>1341.05</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <f t="shared" ref="O7:P7" si="0">AVERAGE(L2:L6)</f>
-        <v>1.2</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8">
-        <f>_xlfn.XLOOKUP(F8,Rankings!B:B,Rankings!A:A)</f>
-        <v>57</v>
-      </c>
-      <c r="H8">
-        <f>_xlfn.XLOOKUP(F8, Rankings!B:B, Rankings!C:C)</f>
-        <v>1427.84</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <f t="shared" ref="O8:O19" si="1">AVERAGE(L3:L7)</f>
-        <v>1.4</v>
-      </c>
-      <c r="P8">
-        <f t="shared" ref="P8:P19" si="2">AVERAGE(M3:M7)</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9">
-        <f>_xlfn.XLOOKUP(F9,Rankings!B:B,Rankings!A:A)</f>
-        <v>210</v>
-      </c>
-      <c r="H9">
-        <f>_xlfn.XLOOKUP(F9, Rankings!B:B, Rankings!C:C)</f>
-        <v>742.05</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <f>_xlfn.XLOOKUP(F10,Rankings!B:B,Rankings!A:A)</f>
-        <v>61</v>
-      </c>
-      <c r="H10">
-        <f>_xlfn.XLOOKUP(F10, Rankings!B:B, Rankings!C:C)</f>
-        <v>1394.44</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11">
-        <f>_xlfn.XLOOKUP(F11,Rankings!B:B,Rankings!A:A)</f>
-        <v>103</v>
-      </c>
-      <c r="H11">
-        <f>_xlfn.XLOOKUP(F11, Rankings!B:B, Rankings!C:C)</f>
-        <v>1203.6400000000001</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>3</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12">
-        <f>_xlfn.XLOOKUP(F12,Rankings!B:B,Rankings!A:A)</f>
-        <v>210</v>
-      </c>
-      <c r="H12">
-        <f>_xlfn.XLOOKUP(F12, Rankings!B:B, Rankings!C:C)</f>
-        <v>742.05</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13">
-        <f>_xlfn.XLOOKUP(F13,Rankings!B:B,Rankings!A:A)</f>
-        <v>57</v>
-      </c>
-      <c r="H13">
-        <f>_xlfn.XLOOKUP(F13, Rankings!B:B, Rankings!C:C)</f>
-        <v>1427.84</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14">
-        <f>_xlfn.XLOOKUP(F14,Rankings!B:B,Rankings!A:A)</f>
-        <v>73</v>
-      </c>
-      <c r="H14">
-        <f>_xlfn.XLOOKUP(F14, Rankings!B:B, Rankings!C:C)</f>
-        <v>1341.05</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15">
-        <f>_xlfn.XLOOKUP(F15,Rankings!B:B,Rankings!A:A)</f>
-        <v>19</v>
-      </c>
-      <c r="H15">
-        <f>_xlfn.XLOOKUP(F15, Rankings!B:B, Rankings!C:C)</f>
-        <v>1616.41</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16">
-        <f>_xlfn.XLOOKUP(F16,Rankings!B:B,Rankings!A:A)</f>
-        <v>133</v>
-      </c>
-      <c r="H16">
-        <f>_xlfn.XLOOKUP(F16, Rankings!B:B, Rankings!C:C)</f>
-        <v>1103.43</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17">
-        <f>_xlfn.XLOOKUP(F17,Rankings!B:B,Rankings!A:A)</f>
-        <v>27</v>
-      </c>
-      <c r="H17">
-        <f>_xlfn.XLOOKUP(F17, Rankings!B:B, Rankings!C:C)</f>
-        <v>1531.68</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18">
-        <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
-        <v>47</v>
-      </c>
-      <c r="H18">
-        <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
-        <v>1467.51</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19">
-        <f>_xlfn.XLOOKUP(F19,Rankings!B:B,Rankings!A:A)</f>
-        <v>57</v>
-      </c>
-      <c r="H19">
-        <f>_xlfn.XLOOKUP(F19, Rankings!B:B, Rankings!C:C)</f>
-        <v>1427.84</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20">
-        <f>_xlfn.XLOOKUP(F20,Rankings!B:B,Rankings!A:A)</f>
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <f>_xlfn.XLOOKUP(F20, Rankings!B:B, Rankings!C:C)</f>
-        <v>1794.9</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ref="O20" si="3">AVERAGE(L15:L19)</f>
-        <v>1.6</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ref="P20" si="4">AVERAGE(M15:M19)</f>
-        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -7919,10 +8135,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED8576-7ACE-45FB-B056-6602C6070749}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9055,6 +9271,60 @@
       <c r="P21">
         <f t="shared" ref="P21" si="4">AVERAGE(M16:M20)</f>
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.XLOOKUP(F22,Rankings!B:B,Rankings!A:A)</f>
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.XLOOKUP(F22, Rankings!B:B, Rankings!C:C)</f>
+        <v>1602.72</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22" si="5">AVERAGE(L17:L21)</f>
+        <v>1.2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ref="P22" si="6">AVERAGE(M17:M21)</f>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -9067,10 +9337,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB29E337-05A6-4422-B464-FCF04D7651D1}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="O22" sqref="O22:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10256,6 +10526,60 @@
       </c>
       <c r="P22">
         <f t="shared" ref="P22" si="4">AVERAGE(M17:M21)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23">
+        <f>_xlfn.XLOOKUP(F23,Rankings!B:B,Rankings!A:A)</f>
+        <v>57</v>
+      </c>
+      <c r="H23">
+        <f>_xlfn.XLOOKUP(F23, Rankings!B:B, Rankings!C:C)</f>
+        <v>1427.84</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23" si="5">AVERAGE(L18:L22)</f>
+        <v>1.4</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23" si="6">AVERAGE(M18:M22)</f>
         <v>0.8</v>
       </c>
     </row>
@@ -15364,10 +15688,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824A6C2E-FC28-4DBC-9F2B-D459C3F183C3}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:H17"/>
+      <selection activeCell="O17" sqref="O17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16284,6 +16608,60 @@
       <c r="P17">
         <f t="shared" ref="P17" si="4">AVERAGE(M12:M16)</f>
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
+        <v>1742.29</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18" si="5">AVERAGE(L13:L17)</f>
+        <v>2.4</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18" si="6">AVERAGE(M13:M17)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16296,10 +16674,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88E5CEA-3262-45D7-BA00-3A22EE12BBE8}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="O22" sqref="O22:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17486,6 +17864,60 @@
       <c r="P22">
         <f t="shared" ref="P22" si="4">AVERAGE(M17:M21)</f>
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <f>_xlfn.XLOOKUP(F23,Rankings!B:B,Rankings!A:A)</f>
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <f>_xlfn.XLOOKUP(F23, Rankings!B:B, Rankings!C:C)</f>
+        <v>1531.49</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23" si="5">AVERAGE(L18:L22)</f>
+        <v>1.4</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23" si="6">AVERAGE(M18:M22)</f>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -27038,7 +27470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE60439-B864-4B78-9844-95B5E9230121}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>

--- a/Football match predictions/Statistics/Country statistics - After round 3.xlsx
+++ b/Football match predictions/Statistics/Country statistics - After round 3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larsl\Documents\Privé\Data Analysis\Football-match-predictions\Football match predictions\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3E1761-EBD7-498E-A316-83B0CFE8973C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E86241-93E5-46CD-96CC-B660E5677B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="13" xr2:uid="{381A2E7C-6258-4120-A37E-4E40B62320C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="21" xr2:uid="{381A2E7C-6258-4120-A37E-4E40B62320C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="25" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="230">
   <si>
     <t>Mexico</t>
   </si>
@@ -8137,7 +8137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ED8576-7ACE-45FB-B056-6602C6070749}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -10593,10 +10593,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7411AC2-5D21-455D-BE63-80B3767F1FFF}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="O17" sqref="O17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11513,6 +11513,60 @@
       <c r="P17">
         <f t="shared" ref="P17" si="4">AVERAGE(M12:M16)</f>
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18">
+        <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
+        <v>48</v>
+      </c>
+      <c r="H18">
+        <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
+        <v>1461.55</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18" si="5">AVERAGE(L13:L17)</f>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18" si="6">AVERAGE(M13:M17)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11525,10 +11579,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA8C81D-E431-43F0-97F0-FC4B37BE9C98}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16:P17"/>
+      <selection activeCell="O17" sqref="O17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12444,6 +12498,60 @@
       </c>
       <c r="P17">
         <f t="shared" ref="P17" si="4">AVERAGE(M12:M16)</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
+        <v>1795.23</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18" si="5">AVERAGE(L13:L17)</f>
+        <v>1.4</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18" si="6">AVERAGE(M13:M17)</f>
         <v>1.4</v>
       </c>
     </row>
@@ -12457,10 +12565,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC26FBD-B83A-45BD-ADA0-0A70FF1AAFE8}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="O20" sqref="O20:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13538,6 +13646,60 @@
       </c>
       <c r="P20">
         <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <f>_xlfn.XLOOKUP(F21,Rankings!B:B,Rankings!A:A)</f>
+        <v>22</v>
+      </c>
+      <c r="H21">
+        <f>_xlfn.XLOOKUP(F21, Rankings!B:B, Rankings!C:C)</f>
+        <v>1568.86</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f>AVERAGE(L16:L20)</f>
+        <v>1.8</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ref="P21" si="3">AVERAGE(M16:M20)</f>
         <v>0.6</v>
       </c>
     </row>
@@ -13551,10 +13713,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5DCFAA-A4DC-4488-B50C-5FAD324B64FC}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="O17" sqref="O17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14470,6 +14632,60 @@
       </c>
       <c r="P17">
         <f t="shared" ref="P17" si="4">AVERAGE(M12:M16)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
+        <v>46</v>
+      </c>
+      <c r="H18">
+        <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
+        <v>1468.17</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18" si="5">AVERAGE(L13:L17)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18" si="6">AVERAGE(M13:M17)</f>
         <v>0.6</v>
       </c>
     </row>
@@ -17930,10 +18146,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFDBCB3-D360-40C8-B08C-914750BA416F}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18850,6 +19066,60 @@
       <c r="P17">
         <f t="shared" ref="P17" si="4">AVERAGE(M12:M16)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
+        <v>36</v>
+      </c>
+      <c r="H18">
+        <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
+        <v>1501.47</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18" si="5">AVERAGE(L13:L17)</f>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18" si="6">AVERAGE(M13:M17)</f>
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -18862,10 +19132,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1666DE3-0108-4BD1-8BCD-C23A383A5ADE}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="O16" sqref="O16:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19728,6 +19998,60 @@
       <c r="P16">
         <f t="shared" ref="P16" si="4">AVERAGE(M11:M15)</f>
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <f>_xlfn.XLOOKUP(F17,Rankings!B:B,Rankings!A:A)</f>
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <f>_xlfn.XLOOKUP(F17, Rankings!B:B, Rankings!C:C)</f>
+        <v>1748.11</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17" si="5">AVERAGE(L12:L16)</f>
+        <v>1.4</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17" si="6">AVERAGE(M12:M16)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19743,10 +20067,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74565D70-9BAA-4DFF-8CD4-0A8FCCB8554C}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20933,6 +21257,60 @@
       <c r="P22">
         <f t="shared" ref="P22" si="4">AVERAGE(M17:M21)</f>
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <f>_xlfn.XLOOKUP(F23,Rankings!B:B,Rankings!A:A)</f>
+        <v>75</v>
+      </c>
+      <c r="H23">
+        <f>_xlfn.XLOOKUP(F23, Rankings!B:B, Rankings!C:C)</f>
+        <v>1333.76</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23" si="5">AVERAGE(L18:L22)</f>
+        <v>2.6</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23" si="6">AVERAGE(M18:M22)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20948,10 +21326,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC37B67-26A1-487C-8F6E-3E36DA5FFAF0}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21868,6 +22246,60 @@
       </c>
       <c r="P17">
         <f t="shared" ref="P17" si="4">AVERAGE(M12:M16)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <f>_xlfn.XLOOKUP(F18,Rankings!B:B,Rankings!A:A)</f>
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <f>_xlfn.XLOOKUP(F18, Rankings!B:B, Rankings!C:C)</f>
+        <v>1495.94</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" ref="O18" si="5">AVERAGE(L13:L17)</f>
+        <v>2.6</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18" si="6">AVERAGE(M13:M17)</f>
         <v>1.2</v>
       </c>
     </row>
